--- a/PPG/Avaliação.xlsx
+++ b/PPG/Avaliação.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0915A7C5-927C-CD45-BB17-C0840384E237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852E2877-9507-E047-8EE8-80C5DCD69BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/PPG/Avaliação.xlsx
+++ b/PPG/Avaliação.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852E2877-9507-E047-8EE8-80C5DCD69BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0405AE-B850-2444-B212-ED36FA9E0AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="2360" yWindow="3200" windowWidth="27160" windowHeight="16400" activeTab="3" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-2020 Quadrienal" sheetId="4" r:id="rId1"/>
-    <sheet name="2013-2016 Quadrienal" sheetId="3" r:id="rId2"/>
-    <sheet name="2010-2012 Trienal" sheetId="2" r:id="rId3"/>
-    <sheet name="2006-2010 APCN" sheetId="1" r:id="rId4"/>
+    <sheet name="2017-2020" sheetId="4" r:id="rId1"/>
+    <sheet name="2013-2016" sheetId="3" r:id="rId2"/>
+    <sheet name="2010-2012" sheetId="2" r:id="rId3"/>
+    <sheet name="2006-2010" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1259D8-EF02-AF4B-A411-9C0B69E884EF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA398BFA-309A-F14C-BACC-4A6A2A919DD5}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/PPG/Avaliação.xlsx
+++ b/PPG/Avaliação.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0405AE-B850-2444-B212-ED36FA9E0AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BFDDB7-3708-0F43-8EF0-3D2F06DE77A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="3200" windowWidth="27160" windowHeight="16400" activeTab="3" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="2360" yWindow="3200" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-2020" sheetId="4" r:id="rId1"/>
-    <sheet name="2013-2016" sheetId="3" r:id="rId2"/>
-    <sheet name="2010-2012" sheetId="2" r:id="rId3"/>
-    <sheet name="2006-2010" sheetId="1" r:id="rId4"/>
+    <sheet name="Avaliação Quadrienal 2017-2020" sheetId="4" r:id="rId1"/>
+    <sheet name="Avaliação Quadrienal 2013-2016" sheetId="3" r:id="rId2"/>
+    <sheet name="Avaliação Trienal 2010-2012" sheetId="2" r:id="rId3"/>
+    <sheet name="APCN 2006-2010" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1259D8-EF02-AF4B-A411-9C0B69E884EF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA398BFA-309A-F14C-BACC-4A6A2A919DD5}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/PPG/Avaliação.xlsx
+++ b/PPG/Avaliação.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BFDDB7-3708-0F43-8EF0-3D2F06DE77A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E38FA-2813-3D4A-982B-D61B19461862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="3200" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="2360" yWindow="3200" windowWidth="27160" windowHeight="16400" activeTab="3" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Avaliação Quadrienal 2017-2020" sheetId="4" r:id="rId1"/>
-    <sheet name="Avaliação Quadrienal 2013-2016" sheetId="3" r:id="rId2"/>
-    <sheet name="Avaliação Trienal 2010-2012" sheetId="2" r:id="rId3"/>
+    <sheet name="Quadrienal 2017-2020" sheetId="4" r:id="rId1"/>
+    <sheet name="Quadrienal 2013-2016" sheetId="3" r:id="rId2"/>
+    <sheet name="Trienal 2010-2012" sheetId="2" r:id="rId3"/>
     <sheet name="APCN 2006-2010" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1259D8-EF02-AF4B-A411-9C0B69E884EF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA398BFA-309A-F14C-BACC-4A6A2A919DD5}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/PPG/Avaliação.xlsx
+++ b/PPG/Avaliação.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/TESTE/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E38FA-2813-3D4A-982B-D61B19461862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE06D698-0B2B-1645-B80B-F0E40AA754AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="3200" windowWidth="27160" windowHeight="16400" activeTab="3" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="2360" yWindow="3200" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Quadrienal 2017-2020" sheetId="4" r:id="rId1"/>
@@ -38,38 +38,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Resolução No. 2/2007 CEPE-UNISUAM.pdf</t>
   </si>
   <si>
-    <t>2007-1</t>
-  </si>
-  <si>
     <t>Ofício No. 154-5 CTC-CAAI-CAPES.pdf</t>
   </si>
   <si>
-    <t>2009-2</t>
-  </si>
-  <si>
     <t>Ficha de Recomendação APCN IES 31063012.pdf</t>
   </si>
   <si>
     <t>Portaria No. 1045 DOU 19/08/2010, Seção 1, Página 10.pdf</t>
   </si>
   <si>
-    <t>2010-2</t>
-  </si>
-  <si>
     <t>Abrir</t>
   </si>
   <si>
     <t>Documento</t>
   </si>
   <si>
-    <t>Publicação</t>
-  </si>
-  <si>
     <t>Portaria No. 6 Reitoria 18/01/2016.pdf</t>
   </si>
   <si>
@@ -167,6 +155,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/19B2Jki-Bw02OgtkIdfoBX-_EZRK76lxz</t>
+  </si>
+  <si>
+    <t>Ano</t>
   </si>
 </sst>
 </file>
@@ -542,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1259D8-EF02-AF4B-A411-9C0B69E884EF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -553,57 +544,57 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -632,24 +623,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -657,10 +648,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -668,21 +659,21 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -690,21 +681,21 @@
         <v>2016</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -735,13 +726,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -749,10 +740,10 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -760,10 +751,10 @@
         <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -771,10 +762,10 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -782,10 +773,10 @@
         <v>2017</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -812,68 +803,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA398BFA-309A-F14C-BACC-4A6A2A919DD5}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.1640625" customWidth="1"/>
     <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
+      <c r="A1" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="3">
+        <v>2010</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="3">
+        <v>2009</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>2009</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
+      <c r="A5" s="3">
+        <v>2007</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
